--- a/permisos.xlsx
+++ b/permisos.xlsx
@@ -13,8 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$H$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,17 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
-  <si>
-    <t>Modulo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Crear Universidad</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t>ver</t>
   </si>
   <si>
@@ -66,19 +65,34 @@
   </si>
   <si>
     <t>Consultar Noticias</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>modulo</t>
+  </si>
+  <si>
+    <t>Array ( [0] =&gt; Array ( [id_permisos] =&gt; 1 [0] =&gt; 1 [fkid_tipo_usuario] =&gt; 1 [1] =&gt; 1 [fkid_modulo] =&gt; 1 [2] =&gt; 1 [ver] =&gt; 1 [3] =&gt; 1 [crear] =&gt; 1 [4] =&gt; 1 [consultar] =&gt; 1 [5] =&gt; 1 [editar] =&gt; 1 [6] =&gt; 1 [eliminar] =&gt; 1 [7] =&gt; 1 [estadov] =&gt; 1 [8]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,43 +398,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -439,10 +456,13 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -451,27 +471,30 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -485,16 +508,19 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -508,16 +534,19 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -529,18 +558,21 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -554,16 +586,19 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -577,16 +612,19 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -598,18 +636,21 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -623,154 +664,175 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -784,39 +846,45 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -830,77 +898,118 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H2">
+    <sortState ref="A3:H23">
+      <sortCondition ref="C2"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>